--- a/data/SRTRANSFIN.xlsx
+++ b/data/SRTRANSFIN.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H496"/>
+  <dimension ref="A1:H499"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13303,6 +13303,84 @@
         <v>4242.95</v>
       </c>
     </row>
+    <row r="497" spans="1:8">
+      <c r="A497" s="2">
+        <v>42775</v>
+      </c>
+      <c r="B497">
+        <v>952.85</v>
+      </c>
+      <c r="C497">
+        <v>961.45</v>
+      </c>
+      <c r="D497">
+        <v>940</v>
+      </c>
+      <c r="E497">
+        <v>950</v>
+      </c>
+      <c r="F497">
+        <v>952.5</v>
+      </c>
+      <c r="G497">
+        <v>1384969</v>
+      </c>
+      <c r="H497">
+        <v>13170.55</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8">
+      <c r="A498" s="2">
+        <v>42776</v>
+      </c>
+      <c r="B498">
+        <v>953</v>
+      </c>
+      <c r="C498">
+        <v>978.85</v>
+      </c>
+      <c r="D498">
+        <v>953</v>
+      </c>
+      <c r="E498">
+        <v>965.35</v>
+      </c>
+      <c r="F498">
+        <v>964.65</v>
+      </c>
+      <c r="G498">
+        <v>1114941</v>
+      </c>
+      <c r="H498">
+        <v>10767.51</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8">
+      <c r="A499" s="2">
+        <v>42779</v>
+      </c>
+      <c r="B499">
+        <v>967.35</v>
+      </c>
+      <c r="C499">
+        <v>971.9</v>
+      </c>
+      <c r="D499">
+        <v>955</v>
+      </c>
+      <c r="E499">
+        <v>968.45</v>
+      </c>
+      <c r="F499">
+        <v>966.3</v>
+      </c>
+      <c r="G499">
+        <v>283014</v>
+      </c>
+      <c r="H499">
+        <v>2725.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
